--- a/Assets/StreamingAssets/Excel/Story/WakeUp.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/WakeUp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DEFC0E-BC00-4705-A64B-CA530D8B3945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C8DA5-F462-4892-960F-D0B7C8933B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F9CE391-B3EE-4812-AA3C-E20E0856172B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{8F9CE391-B3EE-4812-AA3C-E20E0856172B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Dust and scattered papers fill the air — among them, your lab partner’s old notes. One entry mentions something called “Project REBIRTH” and a warning that government agents are seizing research across the city.</t>
   </si>
   <si>
-    <t>Wait(1f, LoadSceneByEnum("GameStartScene");</t>
+    <t>Wait(3f, LoadSceneByEnum("GameStartScene"));</t>
   </si>
 </sst>
 </file>
@@ -442,12 +442,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW() -1</f>
         <v>1</v>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ROW() -1</f>
         <v>2</v>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>ROW() -1</f>
         <v>3</v>

--- a/Assets/StreamingAssets/Excel/Story/WakeUp.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/WakeUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C8DA5-F462-4892-960F-D0B7C8933B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD367DC7-F3DF-4AA2-8EE6-F4B98779D13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{8F9CE391-B3EE-4812-AA3C-E20E0856172B}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
